--- a/target/classes/com/qa/testdata/FreeCrmTestData.xlsx
+++ b/target/classes/com/qa/testdata/FreeCrmTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9a25a441372e426/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA\Selenium_WorkSpace\PageObjectModel\src\main\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2364FD6F-E019-49D4-BA00-39F05DDF0995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA1CDE1A-1E5D-475A-A16C-B6D5D8432254}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D371070-9277-41F9-BDDD-CFB55879C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="1416" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{C132C686-F1E2-40E5-970C-68B69362F904}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>firstname</t>
   </si>
@@ -74,6 +74,78 @@
   </si>
   <si>
     <t>susan@gmail.com</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>12 shiv lane</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>35 rudra lane</t>
+  </si>
+  <si>
+    <t>75 om lane</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount </t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>amazon deal</t>
+  </si>
+  <si>
+    <t>google deal</t>
+  </si>
+  <si>
+    <t>boat deal</t>
+  </si>
+  <si>
+    <t>sugar deal</t>
+  </si>
+  <si>
+    <t>lipstcik deal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paid seo </t>
+  </si>
+  <si>
+    <t>headphones deal</t>
+  </si>
+  <si>
+    <t>completion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title </t>
+  </si>
+  <si>
+    <t>baby garments deal</t>
+  </si>
+  <si>
+    <t>lipstick deal</t>
+  </si>
+  <si>
+    <t>paid seo</t>
   </si>
 </sst>
 </file>
@@ -456,24 +528,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F825F8-0EDF-482A-B612-2BEC563A7D8F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{88795F10-3AC9-44AE-9BE7-E4A404D53EDC}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{35D17D32-3813-465A-84C0-2A47D564D74A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{DB187B5A-51AD-4E89-9982-75BBE5B64EF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22656900-FFAF-4CD5-95DF-026E0FAF7B37}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>20000</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>30000</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -483,65 +716,62 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{88795F10-3AC9-44AE-9BE7-E4A404D53EDC}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{35D17D32-3813-465A-84C0-2A47D564D74A}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{DB187B5A-51AD-4E89-9982-75BBE5B64EF7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>